--- a/app/templates/GGGG-MM-DD-sm.xlsx
+++ b/app/templates/GGGG-MM-DD-sm.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Школа</t>
   </si>
@@ -78,9 +78,6 @@
     <t>гарнир</t>
   </si>
   <si>
-    <t>сладкое</t>
-  </si>
-  <si>
     <t>фрукты</t>
   </si>
   <si>
@@ -102,7 +99,7 @@
     <t>Выход, г</t>
   </si>
   <si>
-    <t>МБОУ "СОШ№1" г.Емвы</t>
+    <t>напиток</t>
   </si>
 </sst>
 </file>
@@ -138,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -153,19 +150,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -405,52 +389,52 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -459,31 +443,31 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -491,25 +475,25 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -572,7 +556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -607,7 +591,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -798,7 +782,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,13 +802,11 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>27</v>
-      </c>
+      <c r="B1" s="38"/>
       <c r="C1" s="39"/>
       <c r="D1" s="40"/>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="24"/>
       <c r="I1" t="s">
@@ -841,13 +823,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>5</v>
@@ -898,7 +880,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="34"/>
@@ -938,7 +920,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="33"/>
@@ -1034,7 +1016,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="34"/>
@@ -1048,7 +1030,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="34"/>
@@ -1062,7 +1044,7 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="34"/>
